--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1619047.840705085</v>
+        <v>1613203.705699955</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.16872584126739</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>19.34185060258083</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -825,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>85.18011569752122</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>28.51033041214349</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>43.95772706123027</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>299.4031523088993</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,28 +1056,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>76.71587097450788</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>124.2826752554035</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.332975795529264</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>84.11892151122044</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>173.6739876358789</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G11" t="n">
         <v>411.0203559212046</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0700504016732</v>
+        <v>127.0088577207291</v>
       </c>
       <c r="H13" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>158.4424567566487</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1627,7 +1627,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I14" t="n">
-        <v>45.37937317040295</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145559</v>
       </c>
       <c r="T14" t="n">
         <v>204.3497241367009</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>28.81869974802302</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>190.5400452173542</v>
+        <v>114.6125022022401</v>
       </c>
       <c r="T16" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2142514133935</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.0203559212046</v>
+        <v>411.0203559212045</v>
       </c>
       <c r="H17" t="n">
         <v>295.6178616169271</v>
@@ -1903,7 +1903,7 @@
         <v>251.0030623803221</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>226.1224112633616</v>
       </c>
       <c r="V19" t="n">
-        <v>17.34050644298901</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>111.4352990145559</v>
+        <v>111.4352990145557</v>
       </c>
       <c r="T20" t="n">
         <v>204.3497241367009</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>119.7401400319056</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>190.5400452173542</v>
@@ -2301,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>132.1500329898538</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3316700149108</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>182.9393678543466</v>
       </c>
       <c r="T25" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>119.740140031906</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>190.5400452173542</v>
+        <v>130.4482050673223</v>
       </c>
       <c r="T28" t="n">
         <v>219.7379838856521</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>77.70687616740308</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>109.6690105369409</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2142514133935</v>
+        <v>249.415635382088</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.0779722853729</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I35" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040295</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>119.7401400319056</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>190.5400452173542</v>
       </c>
       <c r="T37" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2142514133935</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>120.4260757264689</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145559</v>
       </c>
       <c r="T38" t="n">
         <v>204.3497241367009</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>130.4482050673222</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>165.2039187723266</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>74.69637495512285</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>139.3269256322934</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>219.7379838856521</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4137,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>46.46978271449999</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>143.0333641506317</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T46" t="n">
         <v>219.7379838856521</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2090.781606227855</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="C2" t="n">
-        <v>1721.819089287443</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2622.583178717825</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2403.948511689888</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2150.18672632798</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>2150.18672632798</v>
       </c>
       <c r="W2" t="n">
-        <v>2113.174258592771</v>
+        <v>2150.18672632798</v>
       </c>
       <c r="X2" t="n">
-        <v>2113.174258592771</v>
+        <v>2150.18672632798</v>
       </c>
       <c r="Y2" t="n">
-        <v>2113.174258592771</v>
+        <v>2150.18672632798</v>
       </c>
     </row>
     <row r="3">
@@ -4391,43 +4391,43 @@
         <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>477.919485916526</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C4" t="n">
-        <v>308.9833029886191</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D4" t="n">
-        <v>308.9833029886191</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="E4" t="n">
-        <v>308.9833029886191</v>
+        <v>229.6312428658945</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>82.74129536798412</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>477.919485916526</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2476.569858826099</v>
+        <v>885.7444020895357</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>516.781885149124</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>516.781885149124</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>516.781885149124</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>509.8363843999206</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W5" t="n">
-        <v>2520.971603332393</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="X5" t="n">
-        <v>2520.971603332393</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="Y5" t="n">
-        <v>2520.971603332393</v>
+        <v>1272.344242153657</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036376</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>573.1740092465172</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="C7" t="n">
-        <v>404.2378263186104</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="D7" t="n">
-        <v>404.2378263186104</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="E7" t="n">
-        <v>404.2378263186104</v>
+        <v>131.4337605824936</v>
       </c>
       <c r="F7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y7" t="n">
-        <v>573.1740092465172</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1780.41262192169</v>
+        <v>1919.063478780785</v>
       </c>
       <c r="C8" t="n">
-        <v>1780.41262192169</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548715</v>
+        <v>2695.802650820718</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548715</v>
+        <v>2695.802650820718</v>
       </c>
       <c r="W8" t="n">
-        <v>2557.151793961624</v>
+        <v>2695.802650820718</v>
       </c>
       <c r="X8" t="n">
-        <v>2557.151793961624</v>
+        <v>2695.802650820718</v>
       </c>
       <c r="Y8" t="n">
-        <v>2167.012461985812</v>
+        <v>2305.663318844906</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>444.0275768541693</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>444.0275768541693</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X10" t="n">
-        <v>444.0275768541693</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>444.0275768541693</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C11" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D11" t="n">
         <v>1652.105554591511</v>
@@ -5041,28 +5041,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J11" t="n">
-        <v>443.7150397139486</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K11" t="n">
-        <v>1086.017693327009</v>
+        <v>597.7080858612032</v>
       </c>
       <c r="L11" t="n">
-        <v>1521.642956557056</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M11" t="n">
-        <v>2127.824549292078</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N11" t="n">
-        <v>2657.180509552854</v>
+        <v>3370.552243872425</v>
       </c>
       <c r="O11" t="n">
-        <v>3520.693250262004</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P11" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R11" t="n">
         <v>4785.883460762037</v>
@@ -5074,19 +5074,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U11" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V11" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W11" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X11" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y11" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="12">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1122.605169488108</v>
+        <v>668.9291251833639</v>
       </c>
       <c r="C13" t="n">
-        <v>953.668986560201</v>
+        <v>668.9291251833639</v>
       </c>
       <c r="D13" t="n">
-        <v>803.5523471478652</v>
+        <v>518.8124857710282</v>
       </c>
       <c r="E13" t="n">
-        <v>655.6392535654721</v>
+        <v>370.899392188635</v>
       </c>
       <c r="F13" t="n">
-        <v>508.7493060675617</v>
+        <v>224.0094446907247</v>
       </c>
       <c r="G13" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H13" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I13" t="n">
         <v>95.71766921524075</v>
@@ -5223,28 +5223,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R13" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302083</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.078649972671</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T13" t="n">
-        <v>1913.078649972671</v>
+        <v>1406.816559682885</v>
       </c>
       <c r="U13" t="n">
-        <v>1913.078649972671</v>
+        <v>1117.711255224911</v>
       </c>
       <c r="V13" t="n">
-        <v>1913.078649972671</v>
+        <v>1117.711255224911</v>
       </c>
       <c r="W13" t="n">
-        <v>1753.035764359895</v>
+        <v>1117.711255224911</v>
       </c>
       <c r="X13" t="n">
-        <v>1525.046213461878</v>
+        <v>889.721704326894</v>
       </c>
       <c r="Y13" t="n">
-        <v>1304.253634318348</v>
+        <v>668.9291251833639</v>
       </c>
     </row>
     <row r="14">
@@ -5260,40 +5260,40 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D14" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E14" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F14" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G14" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H14" t="n">
-        <v>141.5554198924154</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I14" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J14" t="n">
-        <v>276.3093906935955</v>
+        <v>443.7150397139486</v>
       </c>
       <c r="K14" t="n">
-        <v>918.6120443066563</v>
+        <v>827.3874605416534</v>
       </c>
       <c r="L14" t="n">
-        <v>1354.237307536703</v>
+        <v>1676.497326176646</v>
       </c>
       <c r="M14" t="n">
-        <v>2315.642184484292</v>
+        <v>2192.88380496633</v>
       </c>
       <c r="N14" t="n">
-        <v>2844.998144745068</v>
+        <v>2722.239765227106</v>
       </c>
       <c r="O14" t="n">
-        <v>3708.510885454218</v>
+        <v>3585.752505936256</v>
       </c>
       <c r="P14" t="n">
         <v>4285.066269150653</v>
@@ -5314,13 +5314,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V14" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W14" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X14" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y14" t="n">
         <v>2765.933610202796</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>124.8274669405165</v>
+        <v>561.6604390533937</v>
       </c>
       <c r="C16" t="n">
-        <v>124.8274669405165</v>
+        <v>392.7242561254868</v>
       </c>
       <c r="D16" t="n">
-        <v>124.8274669405165</v>
+        <v>242.6076167131511</v>
       </c>
       <c r="E16" t="n">
-        <v>124.8274669405165</v>
+        <v>242.6076167131511</v>
       </c>
       <c r="F16" t="n">
-        <v>124.8274669405165</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G16" t="n">
-        <v>124.8274669405165</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H16" t="n">
-        <v>124.8274669405165</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I16" t="n">
         <v>95.71766921524075</v>
@@ -5460,28 +5460,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R16" t="n">
-        <v>1821.238811302083</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S16" t="n">
-        <v>1628.774119163341</v>
+        <v>1797.308445727984</v>
       </c>
       <c r="T16" t="n">
-        <v>1406.816559682885</v>
+        <v>1797.308445727984</v>
       </c>
       <c r="U16" t="n">
-        <v>1117.711255224911</v>
+        <v>1508.203141270011</v>
       </c>
       <c r="V16" t="n">
-        <v>863.0267670190245</v>
+        <v>1253.518653064124</v>
       </c>
       <c r="W16" t="n">
-        <v>573.609596982064</v>
+        <v>964.1014830271636</v>
       </c>
       <c r="X16" t="n">
-        <v>345.6200460840466</v>
+        <v>964.1014830271636</v>
       </c>
       <c r="Y16" t="n">
-        <v>124.8274669405165</v>
+        <v>743.3089038836334</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D17" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E17" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F17" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G17" t="n">
         <v>440.1593205155743</v>
@@ -5518,16 +5518,16 @@
         <v>276.3093906935955</v>
       </c>
       <c r="K17" t="n">
-        <v>918.6120443066563</v>
+        <v>597.7080858612032</v>
       </c>
       <c r="L17" t="n">
-        <v>1354.237307536703</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M17" t="n">
-        <v>2288.68291164154</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N17" t="n">
-        <v>3251.01232707018</v>
+        <v>3370.552243872425</v>
       </c>
       <c r="O17" t="n">
         <v>4114.52506777933</v>
@@ -5551,13 +5551,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V17" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W17" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X17" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y17" t="n">
         <v>2765.933610202796</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>975.7152219901975</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C19" t="n">
-        <v>806.7790390622906</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D19" t="n">
-        <v>656.6623996499549</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E19" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F19" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G19" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H19" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I19" t="n">
         <v>95.71766921524075</v>
@@ -5700,25 +5700,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S19" t="n">
-        <v>1913.078649972671</v>
+        <v>1720.61395783393</v>
       </c>
       <c r="T19" t="n">
-        <v>1913.078649972671</v>
+        <v>1498.656398353473</v>
       </c>
       <c r="U19" t="n">
-        <v>1913.078649972671</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V19" t="n">
-        <v>1895.562986898945</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W19" t="n">
-        <v>1606.145816861984</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X19" t="n">
-        <v>1378.156265963967</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y19" t="n">
-        <v>1157.363686820437</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2379.333770138674</v>
+        <v>2379.333770138673</v>
       </c>
       <c r="C20" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198261</v>
       </c>
       <c r="D20" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E20" t="n">
         <v>1266.317301993267</v>
@@ -5755,22 +5755,22 @@
         <v>276.3093906935955</v>
       </c>
       <c r="K20" t="n">
-        <v>918.6120443066563</v>
+        <v>597.7080858612032</v>
       </c>
       <c r="L20" t="n">
-        <v>1767.721909941649</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M20" t="n">
-        <v>2284.108388731333</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N20" t="n">
-        <v>3246.437804159973</v>
+        <v>3370.552243872425</v>
       </c>
       <c r="O20" t="n">
-        <v>4109.950544869123</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P20" t="n">
-        <v>4490.683586993752</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q20" t="n">
         <v>4733.000021926293</v>
@@ -5785,19 +5785,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U20" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053371</v>
       </c>
       <c r="V20" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W20" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439686</v>
       </c>
       <c r="X20" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178606</v>
       </c>
       <c r="Y20" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202795</v>
       </c>
     </row>
     <row r="21">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3381.554116856928</v>
+        <v>216.667305611105</v>
       </c>
       <c r="C22" t="n">
-        <v>3381.554116856928</v>
+        <v>216.667305611105</v>
       </c>
       <c r="D22" t="n">
-        <v>3381.554116856928</v>
+        <v>216.667305611105</v>
       </c>
       <c r="E22" t="n">
-        <v>3381.554116856928</v>
+        <v>216.667305611105</v>
       </c>
       <c r="F22" t="n">
-        <v>3381.554116856928</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G22" t="n">
-        <v>3213.806591198672</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H22" t="n">
-        <v>3067.192078286991</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I22" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J22" t="n">
-        <v>3010.548472161395</v>
+        <v>137.7436613720289</v>
       </c>
       <c r="K22" t="n">
-        <v>3209.44692386325</v>
+        <v>336.642113073884</v>
       </c>
       <c r="L22" t="n">
-        <v>3519.494898304408</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M22" t="n">
-        <v>3856.786138513316</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N22" t="n">
-        <v>4191.4919633349</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O22" t="n">
-        <v>4484.630670750721</v>
+        <v>1611.825859961355</v>
       </c>
       <c r="P22" t="n">
-        <v>4711.940793992646</v>
+        <v>1839.13598320328</v>
       </c>
       <c r="Q22" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R22" t="n">
-        <v>4694.043622091449</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S22" t="n">
-        <v>4501.578929952707</v>
+        <v>1720.61395783393</v>
       </c>
       <c r="T22" t="n">
-        <v>4279.62137047225</v>
+        <v>1498.656398353473</v>
       </c>
       <c r="U22" t="n">
-        <v>3990.516066014277</v>
+        <v>1209.5510938955</v>
       </c>
       <c r="V22" t="n">
-        <v>3735.831577808391</v>
+        <v>954.866605689613</v>
       </c>
       <c r="W22" t="n">
-        <v>3602.346696000458</v>
+        <v>665.4494356526525</v>
       </c>
       <c r="X22" t="n">
-        <v>3602.346696000458</v>
+        <v>437.4598847546351</v>
       </c>
       <c r="Y22" t="n">
-        <v>3381.554116856928</v>
+        <v>216.667305611105</v>
       </c>
     </row>
     <row r="23">
@@ -5974,13 +5974,13 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E23" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F23" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G23" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H23" t="n">
         <v>141.5554198924156</v>
@@ -5995,22 +5995,22 @@
         <v>597.7080858612032</v>
       </c>
       <c r="L23" t="n">
-        <v>1429.019117716511</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M23" t="n">
-        <v>2390.423994664099</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N23" t="n">
-        <v>3352.75341009274</v>
+        <v>3370.552243872425</v>
       </c>
       <c r="O23" t="n">
-        <v>3839.273971351772</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P23" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q23" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R23" t="n">
         <v>4785.883460762037</v>
@@ -6025,13 +6025,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V23" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W23" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X23" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y23" t="n">
         <v>2765.933610202796</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>714.1661687439521</v>
+        <v>264.6538521431477</v>
       </c>
       <c r="C25" t="n">
-        <v>545.2299858160452</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D25" t="n">
-        <v>395.1133464037094</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E25" t="n">
-        <v>395.1133464037094</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F25" t="n">
-        <v>395.1133464037094</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G25" t="n">
-        <v>227.3658207454537</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H25" t="n">
         <v>95.71766921524075</v>
@@ -6171,28 +6171,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R25" t="n">
-        <v>1821.238811302083</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S25" t="n">
-        <v>1821.238811302083</v>
+        <v>1728.291409715756</v>
       </c>
       <c r="T25" t="n">
-        <v>1599.281251821626</v>
+        <v>1728.291409715756</v>
       </c>
       <c r="U25" t="n">
-        <v>1599.281251821626</v>
+        <v>1439.186105257782</v>
       </c>
       <c r="V25" t="n">
-        <v>1344.596763615739</v>
+        <v>1184.501617051895</v>
       </c>
       <c r="W25" t="n">
-        <v>1344.596763615739</v>
+        <v>895.0844470149349</v>
       </c>
       <c r="X25" t="n">
-        <v>1116.607212717722</v>
+        <v>667.0948961169175</v>
       </c>
       <c r="Y25" t="n">
-        <v>895.8146335741918</v>
+        <v>446.3023169733874</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2379.333770138674</v>
+        <v>2379.333770138673</v>
       </c>
       <c r="C26" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198261</v>
       </c>
       <c r="D26" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E26" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F26" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G26" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155742</v>
       </c>
       <c r="H26" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924154</v>
       </c>
       <c r="I26" t="n">
         <v>95.71766921524075</v>
@@ -6229,10 +6229,10 @@
         <v>443.7150397139486</v>
       </c>
       <c r="K26" t="n">
-        <v>765.1137348815562</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L26" t="n">
-        <v>1611.438070502394</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M26" t="n">
         <v>2127.824549292078</v>
@@ -6259,19 +6259,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U26" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053371</v>
       </c>
       <c r="V26" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W26" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439686</v>
       </c>
       <c r="X26" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178606</v>
       </c>
       <c r="Y26" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202795</v>
       </c>
     </row>
     <row r="27">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C28" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D28" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E28" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F28" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G28" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H28" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I28" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J28" t="n">
-        <v>3010.548472161395</v>
+        <v>137.7436613720289</v>
       </c>
       <c r="K28" t="n">
-        <v>3209.44692386325</v>
+        <v>336.642113073884</v>
       </c>
       <c r="L28" t="n">
-        <v>3519.494898304408</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M28" t="n">
-        <v>3856.786138513316</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N28" t="n">
-        <v>4191.4919633349</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O28" t="n">
-        <v>4484.630670750721</v>
+        <v>1611.825859961355</v>
       </c>
       <c r="P28" t="n">
-        <v>4711.940793992646</v>
+        <v>1839.13598320328</v>
       </c>
       <c r="Q28" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R28" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S28" t="n">
-        <v>4593.418768623295</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T28" t="n">
-        <v>4371.461209142839</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U28" t="n">
-        <v>4082.355904684866</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V28" t="n">
-        <v>3827.671416478979</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W28" t="n">
-        <v>3538.254246442018</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X28" t="n">
-        <v>3310.264695544001</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y28" t="n">
-        <v>3089.472116400471</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2379.333770138674</v>
+        <v>2379.333770138673</v>
       </c>
       <c r="C29" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198261</v>
       </c>
       <c r="D29" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E29" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F29" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G29" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H29" t="n">
         <v>141.5554198924156</v>
@@ -6466,16 +6466,16 @@
         <v>276.3093906935955</v>
       </c>
       <c r="K29" t="n">
-        <v>855.1603485090766</v>
+        <v>597.7080858612032</v>
       </c>
       <c r="L29" t="n">
-        <v>1704.27021414407</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M29" t="n">
-        <v>2665.675091091658</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N29" t="n">
-        <v>3628.004506520298</v>
+        <v>3370.552243872425</v>
       </c>
       <c r="O29" t="n">
         <v>4114.52506777933</v>
@@ -6496,19 +6496,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U29" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053371</v>
       </c>
       <c r="V29" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W29" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439686</v>
       </c>
       <c r="X29" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178606</v>
       </c>
       <c r="Y29" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202795</v>
       </c>
     </row>
     <row r="30">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>738.5463968580366</v>
+        <v>559.4568932234512</v>
       </c>
       <c r="C31" t="n">
-        <v>569.6102139301297</v>
+        <v>390.5207102955442</v>
       </c>
       <c r="D31" t="n">
-        <v>419.4935745177939</v>
+        <v>390.5207102955442</v>
       </c>
       <c r="E31" t="n">
-        <v>419.4935745177939</v>
+        <v>242.6076167131511</v>
       </c>
       <c r="F31" t="n">
-        <v>419.4935745177939</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G31" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H31" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I31" t="n">
         <v>95.71766921524075</v>
@@ -6651,22 +6651,22 @@
         <v>1913.078649972671</v>
       </c>
       <c r="T31" t="n">
-        <v>1913.078649972671</v>
+        <v>1802.301871652529</v>
       </c>
       <c r="U31" t="n">
-        <v>1913.078649972671</v>
+        <v>1513.196567194556</v>
       </c>
       <c r="V31" t="n">
-        <v>1658.394161766784</v>
+        <v>1258.512078988669</v>
       </c>
       <c r="W31" t="n">
-        <v>1368.976991729824</v>
+        <v>969.0949089517082</v>
       </c>
       <c r="X31" t="n">
-        <v>1140.987440831806</v>
+        <v>741.1053580536909</v>
       </c>
       <c r="Y31" t="n">
-        <v>920.1948616882763</v>
+        <v>741.1053580536909</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1266.317301993267</v>
       </c>
       <c r="F32" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G32" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H32" t="n">
-        <v>141.5554198924154</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I32" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J32" t="n">
-        <v>276.3093906935955</v>
+        <v>443.7150397139486</v>
       </c>
       <c r="K32" t="n">
-        <v>827.3874605416534</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L32" t="n">
-        <v>1676.497326176646</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M32" t="n">
-        <v>2192.88380496633</v>
+        <v>2038.02943534674</v>
       </c>
       <c r="N32" t="n">
-        <v>2722.239765227106</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O32" t="n">
-        <v>3585.752505936256</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P32" t="n">
-        <v>4285.066269150653</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q32" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R32" t="n">
         <v>4785.883460762037</v>
@@ -6779,7 +6779,7 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J33" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K33" t="n">
         <v>488.1430095111803</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3137.458662932514</v>
+        <v>264.6538521431477</v>
       </c>
       <c r="C34" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D34" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E34" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F34" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G34" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H34" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I34" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J34" t="n">
-        <v>3010.548472161395</v>
+        <v>137.7436613720289</v>
       </c>
       <c r="K34" t="n">
-        <v>3209.44692386325</v>
+        <v>336.642113073884</v>
       </c>
       <c r="L34" t="n">
-        <v>3519.494898304408</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M34" t="n">
-        <v>3856.786138513316</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N34" t="n">
-        <v>4191.4919633349</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O34" t="n">
-        <v>4484.630670750721</v>
+        <v>1611.825859961355</v>
       </c>
       <c r="P34" t="n">
-        <v>4711.940793992646</v>
+        <v>1839.13598320328</v>
       </c>
       <c r="Q34" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R34" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S34" t="n">
-        <v>4593.418768623295</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T34" t="n">
-        <v>4371.461209142839</v>
+        <v>1691.121090492215</v>
       </c>
       <c r="U34" t="n">
-        <v>4082.355904684866</v>
+        <v>1439.186105257782</v>
       </c>
       <c r="V34" t="n">
-        <v>3827.671416478979</v>
+        <v>1184.501617051895</v>
       </c>
       <c r="W34" t="n">
-        <v>3538.254246442018</v>
+        <v>895.0844470149349</v>
       </c>
       <c r="X34" t="n">
-        <v>3310.264695544001</v>
+        <v>667.0948961169175</v>
       </c>
       <c r="Y34" t="n">
-        <v>3137.458662932514</v>
+        <v>446.3023169733874</v>
       </c>
     </row>
     <row r="35">
@@ -6919,46 +6919,46 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D35" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E35" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F35" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G35" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155742</v>
       </c>
       <c r="H35" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924154</v>
       </c>
       <c r="I35" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J35" t="n">
-        <v>276.3093906935955</v>
+        <v>443.7150397139486</v>
       </c>
       <c r="K35" t="n">
-        <v>604.6058461270948</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L35" t="n">
-        <v>1453.715711762088</v>
+        <v>1611.438070502394</v>
       </c>
       <c r="M35" t="n">
-        <v>1970.102190551771</v>
+        <v>2127.824549292078</v>
       </c>
       <c r="N35" t="n">
-        <v>2932.431605980412</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O35" t="n">
-        <v>3795.944346689562</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P35" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q35" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R35" t="n">
         <v>4785.883460762037</v>
@@ -7016,7 +7016,7 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J36" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K36" t="n">
         <v>488.1430095111803</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>216.667305611105</v>
+        <v>363.3234504255321</v>
       </c>
       <c r="C37" t="n">
-        <v>216.667305611105</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="D37" t="n">
-        <v>216.667305611105</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="E37" t="n">
-        <v>216.667305611105</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="F37" t="n">
-        <v>216.667305611105</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="G37" t="n">
-        <v>216.667305611105</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="H37" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I37" t="n">
         <v>95.71766921524075</v>
@@ -7125,22 +7125,22 @@
         <v>1720.61395783393</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.656398353473</v>
+        <v>1720.61395783393</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.5510938955</v>
+        <v>1431.508653375957</v>
       </c>
       <c r="V37" t="n">
-        <v>954.866605689613</v>
+        <v>1176.82416517007</v>
       </c>
       <c r="W37" t="n">
-        <v>665.4494356526525</v>
+        <v>887.4069951331089</v>
       </c>
       <c r="X37" t="n">
-        <v>437.4598847546351</v>
+        <v>765.764494399302</v>
       </c>
       <c r="Y37" t="n">
-        <v>216.667305611105</v>
+        <v>544.9719152557718</v>
       </c>
     </row>
     <row r="38">
@@ -7159,13 +7159,13 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E38" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F38" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G38" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H38" t="n">
         <v>141.5554198924156</v>
@@ -7177,25 +7177,25 @@
         <v>276.3093906935955</v>
       </c>
       <c r="K38" t="n">
-        <v>597.7080858612032</v>
+        <v>918.6120443066563</v>
       </c>
       <c r="L38" t="n">
-        <v>1446.817951496196</v>
+        <v>1767.721909941649</v>
       </c>
       <c r="M38" t="n">
-        <v>2408.222828443784</v>
+        <v>2284.108388731333</v>
       </c>
       <c r="N38" t="n">
-        <v>3370.552243872425</v>
+        <v>3246.437804159973</v>
       </c>
       <c r="O38" t="n">
-        <v>4114.52506777933</v>
+        <v>4109.950544869123</v>
       </c>
       <c r="P38" t="n">
-        <v>4495.258109903959</v>
+        <v>4490.683586993752</v>
       </c>
       <c r="Q38" t="n">
-        <v>4733.000021926293</v>
+        <v>4728.425499016086</v>
       </c>
       <c r="R38" t="n">
         <v>4785.883460762037</v>
@@ -7210,13 +7210,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V38" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W38" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X38" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y38" t="n">
         <v>2765.933610202796</v>
@@ -7253,16 +7253,16 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J39" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K39" t="n">
-        <v>414.2869325418659</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L39" t="n">
-        <v>769.6414721740672</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M39" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075617</v>
       </c>
       <c r="N39" t="n">
         <v>1737.471620890736</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>227.4835329196067</v>
+        <v>1023.935571205723</v>
       </c>
       <c r="C40" t="n">
-        <v>95.71766921524075</v>
+        <v>854.9993882778166</v>
       </c>
       <c r="D40" t="n">
-        <v>95.71766921524075</v>
+        <v>704.8827488654808</v>
       </c>
       <c r="E40" t="n">
-        <v>95.71766921524075</v>
+        <v>556.9696552830877</v>
       </c>
       <c r="F40" t="n">
-        <v>95.71766921524075</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="G40" t="n">
-        <v>95.71766921524075</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="H40" t="n">
         <v>95.71766921524075</v>
@@ -7356,28 +7356,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R40" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302083</v>
       </c>
       <c r="S40" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302083</v>
       </c>
       <c r="T40" t="n">
-        <v>1691.121090492215</v>
+        <v>1821.238811302083</v>
       </c>
       <c r="U40" t="n">
-        <v>1402.015786034242</v>
+        <v>1821.238811302083</v>
       </c>
       <c r="V40" t="n">
-        <v>1147.331297828355</v>
+        <v>1821.238811302083</v>
       </c>
       <c r="W40" t="n">
-        <v>857.9141277913939</v>
+        <v>1654.366166077511</v>
       </c>
       <c r="X40" t="n">
-        <v>629.9245768933765</v>
+        <v>1426.376615179493</v>
       </c>
       <c r="Y40" t="n">
-        <v>409.1319977498464</v>
+        <v>1205.584036035963</v>
       </c>
     </row>
     <row r="41">
@@ -7420,19 +7420,19 @@
         <v>1446.817951496196</v>
       </c>
       <c r="M41" t="n">
-        <v>2408.222828443784</v>
+        <v>1963.20443028588</v>
       </c>
       <c r="N41" t="n">
-        <v>3251.01232707018</v>
+        <v>2925.53384571452</v>
       </c>
       <c r="O41" t="n">
-        <v>4114.52506777933</v>
+        <v>3789.04658642367</v>
       </c>
       <c r="P41" t="n">
-        <v>4495.258109903959</v>
+        <v>4488.360349638067</v>
       </c>
       <c r="Q41" t="n">
-        <v>4733.000021926293</v>
+        <v>4726.102261660401</v>
       </c>
       <c r="R41" t="n">
         <v>4785.883460762037</v>
@@ -7490,25 +7490,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J42" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K42" t="n">
-        <v>414.2869325418659</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L42" t="n">
-        <v>769.6414721740672</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M42" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075617</v>
       </c>
       <c r="N42" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O42" t="n">
-        <v>2062.14661647041</v>
+        <v>2136.002693439724</v>
       </c>
       <c r="P42" t="n">
-        <v>2362.669871067691</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q42" t="n">
         <v>2587.498588679581</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>171.1685530082941</v>
+        <v>629.9245768933765</v>
       </c>
       <c r="C43" t="n">
-        <v>95.71766921524075</v>
+        <v>629.9245768933765</v>
       </c>
       <c r="D43" t="n">
-        <v>95.71766921524075</v>
+        <v>629.9245768933765</v>
       </c>
       <c r="E43" t="n">
-        <v>95.71766921524075</v>
+        <v>482.0114833109834</v>
       </c>
       <c r="F43" t="n">
-        <v>95.71766921524075</v>
+        <v>335.121535813073</v>
       </c>
       <c r="G43" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="H43" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I43" t="n">
         <v>95.71766921524075</v>
@@ -7593,28 +7593,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R43" t="n">
-        <v>1821.238811302083</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S43" t="n">
-        <v>1628.774119163341</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T43" t="n">
-        <v>1406.816559682885</v>
+        <v>1691.121090492215</v>
       </c>
       <c r="U43" t="n">
-        <v>1117.711255224911</v>
+        <v>1402.015786034242</v>
       </c>
       <c r="V43" t="n">
-        <v>863.0267670190245</v>
+        <v>1147.331297828355</v>
       </c>
       <c r="W43" t="n">
-        <v>573.609596982064</v>
+        <v>857.9141277913939</v>
       </c>
       <c r="X43" t="n">
-        <v>573.609596982064</v>
+        <v>629.9245768933765</v>
       </c>
       <c r="Y43" t="n">
-        <v>352.8170178385338</v>
+        <v>629.9245768933765</v>
       </c>
     </row>
     <row r="44">
@@ -7648,19 +7648,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J44" t="n">
-        <v>443.7150397139486</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K44" t="n">
-        <v>1086.017693327009</v>
+        <v>597.7080858612032</v>
       </c>
       <c r="L44" t="n">
-        <v>1935.127558962002</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M44" t="n">
-        <v>2896.53243590959</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N44" t="n">
-        <v>3628.004506520298</v>
+        <v>3370.552243872425</v>
       </c>
       <c r="O44" t="n">
         <v>4114.52506777933</v>
@@ -7727,7 +7727,7 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J45" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K45" t="n">
         <v>488.1430095111803</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>264.6538521431477</v>
+        <v>437.4598847546351</v>
       </c>
       <c r="C46" t="n">
-        <v>95.71766921524075</v>
+        <v>437.4598847546351</v>
       </c>
       <c r="D46" t="n">
-        <v>95.71766921524075</v>
+        <v>390.5207102955442</v>
       </c>
       <c r="E46" t="n">
-        <v>95.71766921524075</v>
+        <v>242.6076167131511</v>
       </c>
       <c r="F46" t="n">
         <v>95.71766921524075</v>
@@ -7833,25 +7833,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S46" t="n">
-        <v>1768.600504365973</v>
+        <v>1720.61395783393</v>
       </c>
       <c r="T46" t="n">
-        <v>1546.642944885516</v>
+        <v>1498.656398353473</v>
       </c>
       <c r="U46" t="n">
-        <v>1257.537640427543</v>
+        <v>1209.5510938955</v>
       </c>
       <c r="V46" t="n">
-        <v>1002.853152221656</v>
+        <v>954.866605689613</v>
       </c>
       <c r="W46" t="n">
-        <v>713.4359821846951</v>
+        <v>665.4494356526525</v>
       </c>
       <c r="X46" t="n">
-        <v>485.4464312866778</v>
+        <v>437.4598847546351</v>
       </c>
       <c r="Y46" t="n">
-        <v>264.6538521431477</v>
+        <v>437.4598847546351</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050812</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747122</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>90.70213529832085</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534074</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,16 +8926,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>62.90275319201731</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8944,7 +8944,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>197.8003450220261</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9166,19 +9166,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>422.2819447627803</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534074</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9403,25 +9403,25 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534074</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>4.620730212330045</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>399.6825945709706</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9652,16 +9652,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>260.0527905534074</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9877,13 +9877,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>414.8475478694858</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>90.70213529832085</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>260.0527905534074</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10126,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>260.0527905534074</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>231.999368364091</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>90.70213529832063</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K33" t="n">
-        <v>74.60209794880245</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10585,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>6.967434612011687</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>90.70213529832102</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10606,10 +10606,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K36" t="n">
-        <v>74.60209794880245</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10825,19 +10825,19 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>260.0527905534074</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>4.620730212330407</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>74.60209794880222</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -11068,22 +11068,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>316.5995337026461</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>6.967434612012021</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>74.60209794880225</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>3.419393410990438</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11308,10 +11308,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>204.1576872221531</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>260.0527905534074</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K45" t="n">
-        <v>74.60209794880245</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>39.0611926809441</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>128.0805415799423</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0700504016732</v>
@@ -23673,7 +23673,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I16" t="n">
-        <v>68.86420255153752</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>75.92754301511413</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,16 +23940,16 @@
         <v>90.92144028388265</v>
       </c>
       <c r="S19" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2142514133935</v>
+        <v>60.09184015003183</v>
       </c>
       <c r="V19" t="n">
-        <v>234.797136880839</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>25.68090799102561</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>154.3729653467372</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H25" t="n">
-        <v>14.81669776765321</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I25" t="n">
         <v>97.68290229956054</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S25" t="n">
-        <v>190.5400452173542</v>
+        <v>7.600677363007634</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>60.09184015003127</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24651,7 +24651,7 @@
         <v>90.92144028388265</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>60.09184015003191</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>88.36317423427009</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>190.5400452173542</v>
       </c>
       <c r="T31" t="n">
-        <v>219.7379838856521</v>
+        <v>110.0689733487113</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>90.92144028388265</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>36.79861603130544</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>47.50668106672188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25329,10 +25329,10 @@
         <v>166.0700504016732</v>
       </c>
       <c r="H37" t="n">
-        <v>25.40822775065837</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>105.2835796625683</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>36.79861603130558</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>97.68290229956054</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>190.5400452173542</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>121.3190795642644</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>92.55044614350498</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0700504016732</v>
+        <v>26.74312476937979</v>
       </c>
       <c r="H43" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,16 +26025,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1456903037124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0700504016732</v>
@@ -26073,7 +26073,7 @@
         <v>90.92144028388265</v>
       </c>
       <c r="S46" t="n">
-        <v>47.50668106672251</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>915047.2289586205</v>
+        <v>915047.2289586202</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>915047.2289586203</v>
+        <v>915047.2289586202</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>915047.2289586203</v>
+        <v>915047.2289586202</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>915047.2289586203</v>
+        <v>915047.2289586202</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>915047.2289586203</v>
+        <v>915047.2289586202</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>915047.2289586202</v>
+        <v>915047.2289586203</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>915047.2289586202</v>
+        <v>915047.2289586203</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.1061651773</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="E2" t="n">
-        <v>495636.6275796163</v>
+        <v>495636.6275796161</v>
       </c>
       <c r="F2" t="n">
+        <v>495636.6275796161</v>
+      </c>
+      <c r="G2" t="n">
         <v>495636.6275796162</v>
       </c>
-      <c r="G2" t="n">
-        <v>495636.6275796163</v>
-      </c>
       <c r="H2" t="n">
-        <v>495636.6275796163</v>
+        <v>495636.6275796162</v>
       </c>
       <c r="I2" t="n">
+        <v>495636.6275796162</v>
+      </c>
+      <c r="J2" t="n">
+        <v>495636.6275796162</v>
+      </c>
+      <c r="K2" t="n">
+        <v>495636.6275796162</v>
+      </c>
+      <c r="L2" t="n">
+        <v>495636.6275796162</v>
+      </c>
+      <c r="M2" t="n">
         <v>495636.6275796161</v>
       </c>
-      <c r="J2" t="n">
-        <v>495636.6275796163</v>
-      </c>
-      <c r="K2" t="n">
-        <v>495636.6275796163</v>
-      </c>
-      <c r="L2" t="n">
-        <v>495636.6275796163</v>
-      </c>
-      <c r="M2" t="n">
-        <v>495636.6275796162</v>
-      </c>
       <c r="N2" t="n">
-        <v>495636.6275796163</v>
+        <v>495636.6275796161</v>
       </c>
       <c r="O2" t="n">
-        <v>495636.6275796163</v>
+        <v>495636.6275796161</v>
       </c>
       <c r="P2" t="n">
         <v>495636.6275796162</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145443</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.132317612107728e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>130130.2399694094</v>
@@ -26420,16 +26420,16 @@
         <v>192206.5963924298</v>
       </c>
       <c r="C4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
         <v>23693.1256358116</v>
       </c>
       <c r="F4" t="n">
-        <v>23693.12563581158</v>
+        <v>23693.12563581159</v>
       </c>
       <c r="G4" t="n">
         <v>23693.1256358116</v>
@@ -26438,7 +26438,7 @@
         <v>23693.1256358116</v>
       </c>
       <c r="I4" t="n">
-        <v>23693.12563581159</v>
+        <v>23693.1256358116</v>
       </c>
       <c r="J4" t="n">
         <v>23693.1256358116</v>
@@ -26453,10 +26453,10 @@
         <v>23693.1256358116</v>
       </c>
       <c r="N4" t="n">
+        <v>23693.12563581161</v>
+      </c>
+      <c r="O4" t="n">
         <v>23693.1256358116</v>
-      </c>
-      <c r="O4" t="n">
-        <v>23693.12563581159</v>
       </c>
       <c r="P4" t="n">
         <v>23693.1256358116</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-351882.4475052067</v>
+        <v>-351882.4475052068</v>
       </c>
       <c r="C6" t="n">
-        <v>238085.4317093375</v>
+        <v>238085.4317093381</v>
       </c>
       <c r="D6" t="n">
-        <v>238085.431709338</v>
+        <v>238085.4317093376</v>
       </c>
       <c r="E6" t="n">
-        <v>-332275.308200093</v>
+        <v>-332975.8873435155</v>
       </c>
       <c r="F6" t="n">
-        <v>375975.7885517354</v>
+        <v>375275.2094083129</v>
       </c>
       <c r="G6" t="n">
-        <v>375975.7885517355</v>
+        <v>375275.209408313</v>
       </c>
       <c r="H6" t="n">
-        <v>375975.7885517355</v>
+        <v>375275.209408313</v>
       </c>
       <c r="I6" t="n">
-        <v>375975.7885517353</v>
+        <v>375275.209408313</v>
       </c>
       <c r="J6" t="n">
-        <v>199552.5693591426</v>
+        <v>198851.9902157202</v>
       </c>
       <c r="K6" t="n">
-        <v>375975.7885517355</v>
+        <v>375275.209408313</v>
       </c>
       <c r="L6" t="n">
-        <v>375975.7885517353</v>
+        <v>375275.209408313</v>
       </c>
       <c r="M6" t="n">
-        <v>245845.5485823259</v>
+        <v>245144.9694389035</v>
       </c>
       <c r="N6" t="n">
-        <v>375975.7885517355</v>
+        <v>375275.2094083129</v>
       </c>
       <c r="O6" t="n">
-        <v>375975.7885517355</v>
+        <v>375275.2094083129</v>
       </c>
       <c r="P6" t="n">
-        <v>375975.7885517354</v>
+        <v>375275.209408313</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="C4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="C4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1196.470865190509</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545549</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.473954475298322e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>522.1835924359539</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>360.5651158222132</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>155.0738622063907</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>60.24093232541003</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>138.7994718469074</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>338.7761146022503</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>114.3810177118957</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>68.70517704842337</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>94.30197809669129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,13 +27909,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>249.89119171276</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>265.1220472061926</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.157992546058438</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28025,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28070,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>63.37316471551392</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730077</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34792,10 +34792,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>351.5124954532402</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K11" t="n">
-        <v>648.7905592051119</v>
+        <v>324.6451466339471</v>
       </c>
       <c r="L11" t="n">
-        <v>440.0255184141889</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M11" t="n">
-        <v>612.3046391262843</v>
+        <v>971.116037320796</v>
       </c>
       <c r="N11" t="n">
-        <v>534.7029901624003</v>
+        <v>972.0499145743844</v>
       </c>
       <c r="O11" t="n">
-        <v>872.235091625404</v>
+        <v>751.487700916066</v>
       </c>
       <c r="P11" t="n">
-        <v>706.3775386004011</v>
+        <v>384.5788304289184</v>
       </c>
       <c r="Q11" t="n">
-        <v>452.4583361370097</v>
+        <v>240.143345477105</v>
       </c>
       <c r="R11" t="n">
-        <v>119.1340348585826</v>
+        <v>53.41761498560015</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35646,16 +35646,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>182.4158802811664</v>
+        <v>351.5124954532402</v>
       </c>
       <c r="K14" t="n">
-        <v>648.7905592051119</v>
+        <v>387.5478998259645</v>
       </c>
       <c r="L14" t="n">
-        <v>440.0255184141889</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M14" t="n">
-        <v>971.116037320796</v>
+        <v>521.6025038279635</v>
       </c>
       <c r="N14" t="n">
         <v>534.7029901624003</v>
@@ -35664,7 +35664,7 @@
         <v>872.235091625404</v>
       </c>
       <c r="P14" t="n">
-        <v>582.3791754509444</v>
+        <v>706.3775386004011</v>
       </c>
       <c r="Q14" t="n">
         <v>452.4583361370097</v>
@@ -35886,19 +35886,19 @@
         <v>182.4158802811664</v>
       </c>
       <c r="K17" t="n">
-        <v>648.7905592051119</v>
+        <v>324.6451466339471</v>
       </c>
       <c r="L17" t="n">
-        <v>440.0255184141889</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M17" t="n">
-        <v>943.8844485907438</v>
+        <v>971.116037320796</v>
       </c>
       <c r="N17" t="n">
         <v>972.0499145743844</v>
       </c>
       <c r="O17" t="n">
-        <v>872.235091625404</v>
+        <v>751.487700916066</v>
       </c>
       <c r="P17" t="n">
         <v>384.5788304289184</v>
@@ -36123,25 +36123,25 @@
         <v>182.4158802811664</v>
       </c>
       <c r="K20" t="n">
-        <v>648.7905592051119</v>
+        <v>324.6451466339471</v>
       </c>
       <c r="L20" t="n">
         <v>857.6867329646393</v>
       </c>
       <c r="M20" t="n">
-        <v>521.6025038279635</v>
+        <v>971.116037320796</v>
       </c>
       <c r="N20" t="n">
         <v>972.0499145743844</v>
       </c>
       <c r="O20" t="n">
-        <v>872.235091625404</v>
+        <v>751.487700916066</v>
       </c>
       <c r="P20" t="n">
         <v>384.5788304289184</v>
       </c>
       <c r="Q20" t="n">
-        <v>244.764075689435</v>
+        <v>240.143345477105</v>
       </c>
       <c r="R20" t="n">
         <v>53.41761498560015</v>
@@ -36363,7 +36363,7 @@
         <v>324.6451466339471</v>
       </c>
       <c r="L23" t="n">
-        <v>839.7081129851595</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M23" t="n">
         <v>971.116037320796</v>
@@ -36372,16 +36372,16 @@
         <v>972.0499145743844</v>
       </c>
       <c r="O23" t="n">
-        <v>491.4349103626587</v>
+        <v>751.487700916066</v>
       </c>
       <c r="P23" t="n">
         <v>384.5788304289184</v>
       </c>
       <c r="Q23" t="n">
-        <v>452.4583361370097</v>
+        <v>240.143345477105</v>
       </c>
       <c r="R23" t="n">
-        <v>119.1340348585826</v>
+        <v>53.41761498560015</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>351.5124954532402</v>
       </c>
       <c r="K26" t="n">
-        <v>324.6451466339471</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L26" t="n">
-        <v>854.8730662836747</v>
+        <v>440.0255184141889</v>
       </c>
       <c r="M26" t="n">
-        <v>521.6025038279635</v>
+        <v>612.3046391262843</v>
       </c>
       <c r="N26" t="n">
         <v>534.7029901624003</v>
@@ -36834,7 +36834,7 @@
         <v>182.4158802811664</v>
       </c>
       <c r="K29" t="n">
-        <v>584.6979371873546</v>
+        <v>324.6451466339471</v>
       </c>
       <c r="L29" t="n">
         <v>857.6867329646393</v>
@@ -36846,7 +36846,7 @@
         <v>972.0499145743844</v>
       </c>
       <c r="O29" t="n">
-        <v>491.4349103626587</v>
+        <v>751.487700916066</v>
       </c>
       <c r="P29" t="n">
         <v>384.5788304289184</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>182.4158802811664</v>
+        <v>351.5124954532402</v>
       </c>
       <c r="K32" t="n">
-        <v>556.6445149980382</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L32" t="n">
-        <v>857.6867329646393</v>
+        <v>440.0255184141889</v>
       </c>
       <c r="M32" t="n">
         <v>521.6025038279635</v>
       </c>
       <c r="N32" t="n">
-        <v>534.7029901624003</v>
+        <v>625.4051254607209</v>
       </c>
       <c r="O32" t="n">
         <v>872.235091625404</v>
@@ -37092,7 +37092,7 @@
         <v>452.4583361370097</v>
       </c>
       <c r="R32" t="n">
-        <v>53.41761498560015</v>
+        <v>119.1340348585826</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>89.63772240239248</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K33" t="n">
-        <v>306.7515102197686</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L33" t="n">
         <v>358.9439794264659</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>182.4158802811664</v>
+        <v>351.5124954532402</v>
       </c>
       <c r="K35" t="n">
-        <v>331.6125812459588</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L35" t="n">
-        <v>857.6867329646393</v>
+        <v>530.7276537125099</v>
       </c>
       <c r="M35" t="n">
         <v>521.6025038279635</v>
       </c>
       <c r="N35" t="n">
-        <v>972.0499145743844</v>
+        <v>534.7029901624003</v>
       </c>
       <c r="O35" t="n">
         <v>872.235091625404</v>
@@ -37326,10 +37326,10 @@
         <v>706.3775386004011</v>
       </c>
       <c r="Q35" t="n">
-        <v>240.143345477105</v>
+        <v>452.4583361370097</v>
       </c>
       <c r="R35" t="n">
-        <v>53.41761498560015</v>
+        <v>119.1340348585826</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>89.63772240239248</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K36" t="n">
-        <v>306.7515102197686</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L36" t="n">
         <v>358.9439794264659</v>
@@ -37545,19 +37545,19 @@
         <v>182.4158802811664</v>
       </c>
       <c r="K38" t="n">
-        <v>324.6451466339471</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L38" t="n">
         <v>857.6867329646393</v>
       </c>
       <c r="M38" t="n">
-        <v>971.116037320796</v>
+        <v>521.6025038279635</v>
       </c>
       <c r="N38" t="n">
         <v>972.0499145743844</v>
       </c>
       <c r="O38" t="n">
-        <v>751.487700916066</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P38" t="n">
         <v>384.5788304289184</v>
@@ -37566,7 +37566,7 @@
         <v>240.143345477105</v>
       </c>
       <c r="R38" t="n">
-        <v>53.41761498560015</v>
+        <v>58.03834519793056</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>89.63772240239248</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K39" t="n">
         <v>232.1494122709662</v>
@@ -37633,7 +37633,7 @@
         <v>438.4230857901372</v>
       </c>
       <c r="N39" t="n">
-        <v>539.1831250347803</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O39" t="n">
         <v>402.5566389383721</v>
@@ -37788,22 +37788,22 @@
         <v>857.6867329646393</v>
       </c>
       <c r="M41" t="n">
-        <v>971.116037320796</v>
+        <v>521.6025038279635</v>
       </c>
       <c r="N41" t="n">
-        <v>851.3025238650464</v>
+        <v>972.0499145743844</v>
       </c>
       <c r="O41" t="n">
         <v>872.235091625404</v>
       </c>
       <c r="P41" t="n">
-        <v>384.5788304289184</v>
+        <v>706.3775386004011</v>
       </c>
       <c r="Q41" t="n">
         <v>240.143345477105</v>
       </c>
       <c r="R41" t="n">
-        <v>53.41761498560015</v>
+        <v>60.38504959761217</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>89.63772240239248</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K42" t="n">
         <v>232.1494122709662</v>
@@ -37879,7 +37879,7 @@
         <v>303.5588430275572</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.0997147594846</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>351.5124954532402</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K44" t="n">
-        <v>648.7905592051119</v>
+        <v>324.6451466339471</v>
       </c>
       <c r="L44" t="n">
         <v>857.6867329646393</v>
@@ -38028,10 +38028,10 @@
         <v>971.116037320796</v>
       </c>
       <c r="N44" t="n">
-        <v>738.8606773845534</v>
+        <v>972.0499145743844</v>
       </c>
       <c r="O44" t="n">
-        <v>491.4349103626587</v>
+        <v>751.487700916066</v>
       </c>
       <c r="P44" t="n">
         <v>384.5788304289184</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>89.63772240239248</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K45" t="n">
-        <v>306.7515102197686</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L45" t="n">
         <v>358.9439794264659</v>
